--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2023S2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanchow/Documents/FOMS_App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478E389-29E4-4F40-9303-1C7D1D01641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF5FEAF-0CB9-4C41-BE33-AFF56981249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -79,15 +79,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
     <t>NTU</t>
   </si>
   <si>
@@ -103,29 +94,38 @@
     <t>JustinL</t>
   </si>
   <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>boss</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>BranchName</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +164,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,6 +183,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,23 +217,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -247,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -393,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,481 +550,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="173" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
       <c r="E4">
         <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E7">
         <v>49</v>
       </c>
       <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{81D093B7-7D45-4C94-BB5C-7AACAE95581C}"/>
-    <hyperlink ref="B5" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{9931FE22-2FDA-4031-AC32-E8C581BFEA0B}"/>
-    <hyperlink ref="B4" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{C6203F7B-B631-4F6A-ABDC-A4C27A0A1DAD}"/>
-    <hyperlink ref="B3" r:id="rId4" display="OURIN@ntu.edu.sg" xr:uid="{49DFE096-5F31-4004-8F65-766F1044AD00}"/>
+    <hyperlink ref="H6" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{81D093B7-7D45-4C94-BB5C-7AACAE95581C}"/>
+    <hyperlink ref="H5" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{9931FE22-2FDA-4031-AC32-E8C581BFEA0B}"/>
+    <hyperlink ref="H4" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{C6203F7B-B631-4F6A-ABDC-A4C27A0A1DAD}"/>
+    <hyperlink ref="H3" r:id="rId4" display="OURIN@ntu.edu.sg" xr:uid="{49DFE096-5F31-4004-8F65-766F1044AD00}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanchow/Documents/FOMS_App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anish\IdeaProjects\FOMS_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF5FEAF-0CB9-4C41-BE33-AFF56981249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58F2D52-F471-4DB7-A395-FAD86C8930A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -46,21 +46,9 @@
     <t xml:space="preserve">Alexei </t>
   </si>
   <si>
-    <t xml:space="preserve">Tom Chan </t>
-  </si>
-  <si>
-    <t>Alica Ang</t>
-  </si>
-  <si>
-    <t>Mary lee</t>
-  </si>
-  <si>
     <t>Staff Login ID</t>
   </si>
   <si>
-    <t>kumar Blackmore</t>
-  </si>
-  <si>
     <t>kumarB</t>
   </si>
   <si>
@@ -85,12 +73,6 @@
     <t>JP</t>
   </si>
   <si>
-    <t>JE</t>
-  </si>
-  <si>
-    <t>Justin Loh</t>
-  </si>
-  <si>
     <t>JustinL</t>
   </si>
   <si>
@@ -119,6 +101,33 @@
   </si>
   <si>
     <t>Manager</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Alica</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Jiaxuan</t>
+  </si>
+  <si>
+    <t>Jared</t>
   </si>
 </sst>
 </file>
@@ -254,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +303,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,81 +561,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="173" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" customWidth="1"/>
+    <col min="3" max="3" width="7.15625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>1</v>
@@ -635,391 +644,453 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>56</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>3</v>
       </c>
       <c r="E5">
         <v>27</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="E6">
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="E7">
         <v>49</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3"/>
     </row>
   </sheetData>
